--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,26 +596,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>610001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>信达澳银领先增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>610001</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银领先增长混合</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.67</v>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3</v>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.49</v>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1148,379 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1561,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.67</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="4">
@@ -1482,14 +1577,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -1498,14 +1593,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -1514,13 +1609,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>2.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1710,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.67</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="5">
@@ -1593,14 +1726,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="6">
@@ -1609,14 +1742,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7">
@@ -1625,13 +1758,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.12</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>610001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银领先增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1170</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.12</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -602,32 +656,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>610001</t>
+          <t>002236</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银领先增长混合</t>
+          <t>大成中证360互联网+大数据100指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3385</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -640,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162102</t>
+          <t>003359</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰中小盘精选混合</t>
+          <t>大成中证360互联网+大数据100指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.81</t>
+          <t>92.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1491</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -734,36 +788,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>610001</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银领先增长混合</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.23</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.77</t>
+          <t>70.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2987</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -772,6 +826,442 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5497</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -972,442 +1462,6 @@
       </c>
       <c r="H5" t="n">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002137</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安利鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>87.76</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5497</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>77.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1477</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1085</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001105</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>信达澳银转型创新股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0857</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>72.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0600</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004930</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004931</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华润元大价值优选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0113</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>700004</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>平安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>79.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>740001</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长安宏观策略混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.99</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1496,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1472,36 +1526,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>610001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>信达澳银领先增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.63</t>
+          <t>89.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.2987</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1536,7 +1590,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1566,32 +1620,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002236</t>
+          <t>610001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成中证360互联网+大数据100指数A</t>
+          <t>信达澳银领先增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>9.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>88.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.3385</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1604,36 +1658,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003359</t>
+          <t>162102</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成中证360互联网+大数据100指数C</t>
+          <t>金鹰中小盘精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.98</t>
+          <t>77.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.1491</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1647,144 +1701,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.12</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
@@ -504,11 +505,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0.05</v>
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>0.67</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.12</v>
       </c>
     </row>
@@ -600,6 +617,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1184</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014600</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时回报严选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时回报严选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +1164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1261,7 +1600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +1808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1563,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1695,7 +2034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/603936-博敏电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -521,11 +522,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.05</v>
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.67</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.12</v>
       </c>
     </row>
@@ -616,7 +633,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1170</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -938,7 +1257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +1389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1164,7 +1483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1600,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1808,7 +2127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1902,7 +2221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2032,98 +2351,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>610001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>信达澳银领先增长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1170</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>